--- a/Experiments/FogBench/results/FOGLAMP.xlsx
+++ b/Experiments/FogBench/results/FOGLAMP.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcch\Documents\csc4006Gitlab\csc4006-EdgeBenchmarking\Experiments\FogBench\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C88766-187A-4083-9227-B846464EFA4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07340E7C-1B3C-457F-A08F-F461A4A010A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{67E05254-79BC-4C16-9639-8B7DC85DF5DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{67E05254-79BC-4C16-9639-8B7DC85DF5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud" sheetId="1" r:id="rId1"/>
-    <sheet name="Edge" sheetId="2" r:id="rId2"/>
+    <sheet name="Rasp" sheetId="3" r:id="rId2"/>
+    <sheet name="Edge" sheetId="2" r:id="rId3"/>
+    <sheet name="stress" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="26">
   <si>
     <t>T1</t>
   </si>
@@ -96,12 +95,30 @@
   <si>
     <t>CL</t>
   </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Edge-Only cpu 1</t>
+  </si>
+  <si>
+    <t>Edge-Only cpu 2</t>
+  </si>
+  <si>
+    <t>Edge-Only cpu 3</t>
+  </si>
+  <si>
+    <t>Edge-Only cpu 4</t>
+  </si>
+  <si>
+    <t>Edge-Only cpu 4 ram 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +126,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -126,15 +443,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1087,6 +1598,1036 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Communication Latency - FogLamp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Run 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Run 5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0703122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9297056000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0683268999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0810908000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1756582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E292-4379-9225-8FEAB5BCA81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Run 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Run 5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1041131000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9543486999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3699205000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9957066000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.298079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E292-4379-9225-8FEAB5BCA81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Raspberry pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5590296000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3079456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5132181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4753121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4282169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E292-4379-9225-8FEAB5BCA81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Communication Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Computation Latency - FogLamp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Run 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Run 5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0900081259999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9456155690000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0876118479999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1062940050000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.200944196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5105-4959-85E4-E78BCD290A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Run 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Run 5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1632996640000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0023694449999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4242783029999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.053548063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3462540249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5105-4959-85E4-E78BCD290A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.683127448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3656860470000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6394250690000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5377902720000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.500073489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5105-4959-85E4-E78BCD290A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1167,6 +2708,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2173,20 +3794,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2217,14 +4844,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2251,72 +4878,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9D4A8B-6C66-4FDF-A236-49442D2C3D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC7251D-BD6E-4EA4-945D-98AF829B01BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cloud"/>
-      <sheetName val="Edge"/>
-      <sheetName val="Cloud-Edge"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="P2">
-            <v>5.1844131999999998</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>5.3081801999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>5.2546664000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="P2">
-            <v>3.1822910000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>3.5509378999999996</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>3.5610951000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="P2">
-            <v>3.2025804</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>3.3671234000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>3.9873187999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2616,10 +5254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE075068-8341-4796-ACFF-3F475791FC42}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,6 +5565,67 @@
       <c r="P6">
         <f t="shared" si="0"/>
         <v>3.1756582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>(A2+A3+A4+A5+A6)/5</f>
+        <v>1.4467373800000001</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:P8" si="1">(B2+B3+B4+B5+B6)/5</f>
+        <v>2.1076008800000001E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.45911322520000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.6182813599999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.0860947487999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9.364000000000001E-8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2946.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2042.9219846032399</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>2567.9875893907601</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>3.0650187400000002</v>
       </c>
     </row>
   </sheetData>
@@ -2936,11 +5635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D492F-4BDB-4F40-B0F4-178EC62B58BC}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D56D67E-7FE7-4A18-AE32-CC4AEA87C651}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,6 +5696,387 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.72516599999999998</v>
+      </c>
+      <c r="B2">
+        <v>0.124097848</v>
+      </c>
+      <c r="C2">
+        <v>2.9793152140000001</v>
+      </c>
+      <c r="D2">
+        <v>0.83386360000000004</v>
+      </c>
+      <c r="E2">
+        <v>1.683127448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2.7570000000000001E-7</v>
+      </c>
+      <c r="H2">
+        <v>3272</v>
+      </c>
+      <c r="I2">
+        <v>3456</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>4512.0703397566003</v>
+      </c>
+      <c r="L2">
+        <v>4144.5627318424004</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <f>E2-B2</f>
+        <v>1.5590296000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.64424459999999995</v>
+      </c>
+      <c r="B3">
+        <v>5.7740447E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.2986942670000001</v>
+      </c>
+      <c r="D3">
+        <v>0.66370099999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.3656860470000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>1.283E-7</v>
+      </c>
+      <c r="H3">
+        <v>3280</v>
+      </c>
+      <c r="I3">
+        <v>3888</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>5091.2339816273998</v>
+      </c>
+      <c r="L3">
+        <v>5858.0595780328003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P6" si="0">E3-B3</f>
+        <v>1.3079456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.7137985</v>
+      </c>
+      <c r="B4">
+        <v>0.126206969</v>
+      </c>
+      <c r="C4">
+        <v>2.2381366090000001</v>
+      </c>
+      <c r="D4">
+        <v>0.79941960000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.6394250690000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2.804E-7</v>
+      </c>
+      <c r="H4">
+        <v>3280</v>
+      </c>
+      <c r="I4">
+        <v>7336</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>4595.1343411340004</v>
+      </c>
+      <c r="L4">
+        <v>9176.6576651359992</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.5132181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.73442030000000003</v>
+      </c>
+      <c r="B5">
+        <v>6.2478171999999998E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.9794771760000001</v>
+      </c>
+      <c r="D5">
+        <v>0.74089179999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.5377902720000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>1.388E-7</v>
+      </c>
+      <c r="H5">
+        <v>3280</v>
+      </c>
+      <c r="I5">
+        <v>3832</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>4466.1074864079001</v>
+      </c>
+      <c r="L5">
+        <v>5172.1452444202996</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.4753121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.63987870000000002</v>
+      </c>
+      <c r="B6">
+        <v>7.1856588999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.935109814</v>
+      </c>
+      <c r="D6">
+        <v>0.78833819999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.500073489</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1.596E-7</v>
+      </c>
+      <c r="H6">
+        <v>3280</v>
+      </c>
+      <c r="I6">
+        <v>3248</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>5125.9715317917999</v>
+      </c>
+      <c r="L6">
+        <v>4120.0591319816003</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.4282169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>(A2+A3+A4+A5+A6)/5</f>
+        <v>0.69150162000000004</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:P8" si="1">(B2+B3+B4+B5+B6)/5</f>
+        <v>8.8476004999999996E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.2861466159999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.76524283999999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.5452204650000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.9655999999999998E-7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4352</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>4758.1035361435397</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>5694.2968702826201</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>1.4567444599999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D492F-4BDB-4F40-B0F4-178EC62B58BC}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0.92188029999999999</v>
       </c>
       <c r="B2">
@@ -3248,6 +6328,1783 @@
       <c r="P6">
         <f t="shared" si="0"/>
         <v>2.298079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>(A2+A3+A4+A5+A6)/5</f>
+        <v>1.085961</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:P8" si="1">(B2+B3+B4+B5+B6)/5</f>
+        <v>5.3516320000000006E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1.4592454658</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.0584725800000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.1979498999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.1887999999999999E-7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4734.3999999999996</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>3102.3930993482199</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>4517.2345521963398</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2.1444335800000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8161B0F7-ADA2-4399-862C-BA482E4737B6}">
+  <dimension ref="A1:Q40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.68845719999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.104383698</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.9196372559999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.74318609999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.5360269980000001</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.3190000000000001E-7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3272</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3456</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4752.6556480198997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4650.2484371007004</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.4316433</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.64677810000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.6634536999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9714198430000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.71642519999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.419837837</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.258E-7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3280</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3888</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5071.2910656683998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5426.9447808368004</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.3632032999999999</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.6570897</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.8569236000000006E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.91491989</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.70818029999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4338392360000001</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.5230000000000001E-7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3280</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7576</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4991.7081336079</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10697.840648772601</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.36527</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.62645850000000003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.1283482</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.958415585</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.76954560000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.5243523000000001</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.8519999999999999E-7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3280</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3680</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5235.781779639</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4782.0428055205002</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.3960041000000001</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.68962159999999995</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.7989559000000005E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.9250644159999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.71450159999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.472112759</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.5099999999999999E-7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3280</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3248</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4756.2315333509996</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4545.8260695286999</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.4041231999999999</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>(A2+A3+A4+A5+A6)/5</f>
+        <v>0.66168101999999995</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:O8" si="0">(B2+B3+B4+B5+B6)/5</f>
+        <v>8.5185046000000014E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9378913980000001</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73036776000000003</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.477233826</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8924000000000002E-7</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>4369.6000000000004</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>4961.5336320572405</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>6020.5805483518607</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3920487799999999</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.64830969999999999</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.8293565000000001E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.9848567349999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.80598219999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.5225854649999999</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.5169999999999999E-7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3272</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3456</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5046.9706067948</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4287.9358874177997</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.4542919000000001</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.71567049999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.8555018999999995E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.9269815429999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.76267940000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.5469049189999999</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.5230000000000001E-7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3280</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3888</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4583.1147155010003</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5097.8169857477997</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.4783499</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.68931410000000004</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.9770832000000005E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.902810484</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.73663540000000005</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.4957203320000001</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.55E-7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3280</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7648</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4758.3532674000999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10382.341114749501</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1.4259495</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.70812030000000004</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.119180072</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.1963715430000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.72802690000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.555327272</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.6479999999999999E-7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3280</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3680</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4631.9813172986997</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5054.7582788493</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.4361472</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.70817629999999998</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.2395015999999998E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.931300018</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.70466779999999996</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.475239116</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.3860000000000001E-7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3280</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3248</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4631.6150371029998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4609.2641099820003</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.4128441</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>(A10+A11+A12+A13+A14)/5</f>
+        <v>0.69391818000000005</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" ref="B16:O16" si="1">(B10+B11+B12+B13+B14)/5</f>
+        <v>7.7638900799999994E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9884640646</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.74759834000000003</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5191554208000002</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7247999999999999E-7</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>4384</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>4730.4069888195199</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="1"/>
+        <v>5886.4232753492797</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.44151652</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.73991059999999997</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.13037686700000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.1060323030000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.76897850000000001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.639265967</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.8970000000000001E-7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3272</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3528</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4422.1558658573003</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4587.9046033145996</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.5088891</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.70255009999999996</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.7638211000000004E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.1458326410000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.72046779999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.4906561110000001</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.5029999999999999E-7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3280</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3960</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4668.7061890675004</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5496.4288480345003</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1.4230179000000001</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.72133860000000005</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8.1216372999999994E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.158399154</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.79216790000000004</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.594722873</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.804E-7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3280</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7576</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4547.1017355787999</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9563.6291245832999</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.5135065000000001</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.72624429999999995</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8.4796940000000001E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.2471750410000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.9731284</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.78416964</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.8839999999999999E-7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3280</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3832</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4516.3865657877996</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3937.8154003108998</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1.6993727000000001</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.75024610000000003</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8.2970563999999997E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.2648226669999998</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.76224479999999994</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.595461464</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.843E-7</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3280</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3248</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4371.8987676177003</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4261.0982718411997</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1.5124909</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>(A18+A19+A20+A21+A22)/5</f>
+        <v>0.72805794000000001</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" ref="B24:O24" si="2">(B18+B19+B20+B21+B22)/5</f>
+        <v>8.9399790999999992E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1844523612000004</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80339747999999989</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6208552109999999</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9862000000000001E-7</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>4428.8</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="2"/>
+        <v>4505.2498247818194</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="2"/>
+        <v>5569.3752496168991</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5314554199999999</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.92549420000000004</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.20995493500000001</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.8384521660000002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.97412620000000005</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.1095753350000002</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4.665E-7</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3272</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3456</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3535.4084336779001</v>
+      </c>
+      <c r="L26" s="4">
+        <v>3547.7949366314001</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.8996204000000001</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>0.9676787</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.139880912</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.863174436</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.0344564999999999</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.1420161119999999</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3.108E-7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3280</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3888</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3389.5548181436002</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3758.4954031416</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2.0021352000000001</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>0.85865150000000001</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.187624401</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.6999973740000001</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.0329466</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.0792225009999998</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.1689999999999998E-7</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3280</v>
+      </c>
+      <c r="I28" s="4">
+        <v>7472</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3819.9432482211</v>
+      </c>
+      <c r="L28" s="4">
+        <v>7233.6750031414003</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1.8915980999999999</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>0.8497924</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.130097668</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.9601284300000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.0271982</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.007088268</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.8910000000000001E-7</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3280</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3752</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3859.7662205498</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3652.6543757571999</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1.8769906000000001</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0.91856709999999997</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.14024671899999999</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.7266668549999999</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.0186552</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2.077469019</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3.1160000000000001E-7</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3280</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3248</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3570.7788794090002</v>
+      </c>
+      <c r="L30" s="4">
+        <v>3188.5175670825001</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1.9372223</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f>(A26+A27+A28+A29+A30)/5</f>
+        <v>0.90403677999999998</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" ref="B32:O32" si="3">(B26+B27+B28+B29+B30)/5</f>
+        <v>0.16156092699999999</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8176838522000001</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0174765399999999</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0830742469999999</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5898E-7</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="3"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>4363.2</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="3"/>
+        <v>3635.0903200002804</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="3"/>
+        <v>4276.2274571508206</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="3"/>
+        <v>1.9215133200000001</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>0.93098400000000003</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.246745099</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6.3302024340000003</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.0659947999999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.2437238989999999</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5.4830000000000001E-7</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3272</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3528</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="5">
+        <v>3514.5609376745001</v>
+      </c>
+      <c r="L34" s="5">
+        <v>3309.5846246154001</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="5">
+        <v>1.9969787999999999</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>1.0077609000000001</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.22977720300000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3.5303909930000001</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.0829648999999999</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.3205030029999998</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5.1060000000000003E-7</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3280</v>
+      </c>
+      <c r="I35" s="5">
+        <v>3888</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="5">
+        <v>3254.7402861135001</v>
+      </c>
+      <c r="L35" s="5">
+        <v>3590.1440573004002</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="5">
+        <v>2.0907258</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>0.96355550000000001</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.188298825</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3.3426699310000001</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.0786716000000001</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2.2305259249999998</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="5">
+        <v>4.1839999999999999E-7</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3280</v>
+      </c>
+      <c r="I36" s="5">
+        <v>7576</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3404.0592368575999</v>
+      </c>
+      <c r="L36" s="5">
+        <v>7023.4536628200003</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="5">
+        <v>2.0422270999999999</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>0.93004209999999998</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.20748350900000001</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3.4465438050000001</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0568263</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2.1943519089999999</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5">
+        <v>4.6100000000000001E-7</v>
+      </c>
+      <c r="H37" s="5">
+        <v>3280</v>
+      </c>
+      <c r="I37" s="5">
+        <v>3832</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3526.7220698933002</v>
+      </c>
+      <c r="L37" s="5">
+        <v>3625.9506410845001</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="5">
+        <v>1.9868684000000001</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>0.92552789999999996</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.75745138000000001</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3.5612428120000001</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.0428964999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2.72587578</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.6832E-6</v>
+      </c>
+      <c r="H38" s="5">
+        <v>3280</v>
+      </c>
+      <c r="I38" s="5">
+        <v>3320</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="5">
+        <v>3543.9234192723002</v>
+      </c>
+      <c r="L38" s="5">
+        <v>3183.4415016255002</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="5">
+        <v>1.9684244</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f>(A34+A35+A36+A37+A38)/5</f>
+        <v>0.95157407999999999</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" ref="B40:O40" si="4">(B34+B35+B36+B37+B38)/5</f>
+        <v>0.32595120319999998</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="4"/>
+        <v>4.0422099950000003</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0654708199999998</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3429961032</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="4"/>
+        <v>7.2429999999999999E-7</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="4"/>
+        <v>3278.4</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="4"/>
+        <v>4428.8</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="4"/>
+        <v>3448.8011899622397</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="4"/>
+        <v>4146.5148974891599</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0170449000000001</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
